--- a/data/trans_dic/P05B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.007584417105815366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.004030636430680989</v>
+        <v>0.00403063643068099</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03017155001956229</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01304108777093363</v>
+        <v>0.01370643286315193</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004223186860278524</v>
+        <v>0.004159661718004553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002496745483835204</v>
+        <v>0.002492647203121919</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01813841661513755</v>
+        <v>0.01789615146898304</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007119251022749096</v>
+        <v>0.00705250352280286</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01521537035343258</v>
+        <v>0.01416426337090275</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004079634152857862</v>
+        <v>0.00411926119482147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01863908969218437</v>
+        <v>0.01884752719275395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007677076156379042</v>
+        <v>0.006920402990129343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009907046569926465</v>
+        <v>0.009278869581859811</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003557326500491899</v>
+        <v>0.003519384699015207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0430865996487402</v>
+        <v>0.04496839714139395</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02337999393501417</v>
+        <v>0.02161343100367803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02045002029307917</v>
+        <v>0.02169072587544162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02264596436833072</v>
+        <v>0.02593351754526705</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04852543098854528</v>
+        <v>0.04862267282614838</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03462114863475284</v>
+        <v>0.0336365296722627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05048317160069522</v>
+        <v>0.05033151489070169</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03632601301728772</v>
+        <v>0.04025218158297302</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04004766328439269</v>
+        <v>0.04050210299047471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02306080191576521</v>
+        <v>0.02281432451800168</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02915770651238815</v>
+        <v>0.02872365076957516</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02051307204009642</v>
+        <v>0.02066518149255711</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02025715863802974</v>
+        <v>0.020058148698959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009673164628041391</v>
+        <v>0.009460117606210667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006931749483962033</v>
+        <v>0.006889912275621509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007890288510222965</v>
+        <v>0.008608529521294555</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03074035954547405</v>
+        <v>0.03136744300572118</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009767309446136629</v>
+        <v>0.009931566931663638</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01060740972811233</v>
+        <v>0.01087259357556263</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005623443656143145</v>
+        <v>0.005209904583257489</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0287859599595842</v>
+        <v>0.02847521219222017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01213988277217583</v>
+        <v>0.01169065458731291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01140335469235454</v>
+        <v>0.01069976555087868</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008354793383586438</v>
+        <v>0.008976599939882564</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04707367246764459</v>
+        <v>0.0481117477046473</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03275113390058863</v>
+        <v>0.03085430046122089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02665672862066234</v>
+        <v>0.02774221988182327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04370428476200348</v>
+        <v>0.04427558344393732</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.067427614873929</v>
+        <v>0.06967618787028707</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03106655909189734</v>
+        <v>0.03176941012242145</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03360562041794612</v>
+        <v>0.03654202791061808</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02947228995547865</v>
+        <v>0.02881166488514412</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05179591377533224</v>
+        <v>0.04994276457928701</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02712947983752436</v>
+        <v>0.02646326259235855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02595271050177653</v>
+        <v>0.02581686604483349</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02767322518841476</v>
+        <v>0.02836665021868611</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01082426878778422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.009556328281512691</v>
+        <v>0.009556328281512693</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05915994465182008</v>
@@ -957,7 +957,7 @@
         <v>0.01971379020590949</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.00778597370733321</v>
+        <v>0.007785973707333209</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04811212026345846</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02287030642872617</v>
+        <v>0.02242998115940194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01056304769818303</v>
+        <v>0.01080907332999483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004560572873632443</v>
+        <v>0.004709197723987687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002571216370425105</v>
+        <v>0.003413585654637793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0435299486683306</v>
+        <v>0.04282687109942171</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01072635933897783</v>
+        <v>0.01079559268940311</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01043314225280251</v>
+        <v>0.01114294678895083</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002739426644337577</v>
+        <v>0.003498618255773741</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03604253043722302</v>
+        <v>0.03666997862912859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01322466861274058</v>
+        <v>0.01378489242497438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009673878918885537</v>
+        <v>0.009535046235923468</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004251108582197783</v>
+        <v>0.004561761635383798</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05535450669833395</v>
+        <v>0.05470192488550055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03613723246015967</v>
+        <v>0.03590416892540533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02058386518085398</v>
+        <v>0.02141204841347668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02182592460150083</v>
+        <v>0.02365802343538088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07835323342141597</v>
+        <v>0.08070137171592305</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0345611167101748</v>
+        <v>0.03289947789004965</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03383939365776776</v>
+        <v>0.03256722306634123</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01639789548130333</v>
+        <v>0.01654947063919376</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06117127967626435</v>
+        <v>0.06070463978346222</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02941979259308091</v>
+        <v>0.03080268733950017</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02294291196387075</v>
+        <v>0.02315293729781444</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01517982051835003</v>
+        <v>0.0147167168387011</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01773621076011827</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.008713661236491095</v>
+        <v>0.008713661236491097</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009529795083389393</v>
+        <v>0.009874826501212101</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01249191688808176</v>
+        <v>0.0117302969862707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007810161881449233</v>
+        <v>0.007796771990228857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00162394207195863</v>
+        <v>0.00159449821792102</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02666805067104688</v>
+        <v>0.02501089711082699</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005304222560691695</v>
+        <v>0.00623490521802425</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01022759518137386</v>
+        <v>0.009848682342683691</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005769000188993961</v>
+        <v>0.005739805530242898</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02068967151682495</v>
+        <v>0.02160214412773296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01141486858403308</v>
+        <v>0.01166769936464415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01035669651627155</v>
+        <v>0.0107640879103975</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004688911075309221</v>
+        <v>0.005382291250109909</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03635698156327541</v>
+        <v>0.03641410417530363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03935854531285782</v>
+        <v>0.0394071203875356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03325611944090612</v>
+        <v>0.03254987164319242</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0154461739843225</v>
+        <v>0.01452906910015732</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06022289127569446</v>
+        <v>0.06007029298101493</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02632289967322827</v>
+        <v>0.02858413660329306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03358652203193919</v>
+        <v>0.03241226397522533</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01962374133096156</v>
+        <v>0.01913511315621991</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04336754297888024</v>
+        <v>0.04352426271759596</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02937030982372653</v>
+        <v>0.02843827068483146</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0273206384337805</v>
+        <v>0.02758637603564719</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01398455065913949</v>
+        <v>0.01400134320880335</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02196382824311344</v>
+        <v>0.02354958194670459</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004783468202905324</v>
+        <v>0.004705317391842104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004407888717912162</v>
+        <v>0.004223376201927162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00569272995437493</v>
+        <v>0.006388892758238379</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02714104067290467</v>
+        <v>0.02952435543087989</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004945660802801434</v>
+        <v>0.004821491564998235</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004764737532523736</v>
+        <v>0.004788581867400622</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.009354567021119958</v>
+        <v>0.009333691503973734</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03011551278804941</v>
+        <v>0.03038139771509114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007078837556329739</v>
+        <v>0.0069735244381121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006808737987230726</v>
+        <v>0.006809457454008652</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009438298366999148</v>
+        <v>0.009537798018583468</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06377026537914061</v>
+        <v>0.06489498347933834</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02936840518784816</v>
+        <v>0.02597166844054239</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02763212792469622</v>
+        <v>0.02836880616118948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02550324270432647</v>
+        <v>0.0257317739538523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07034745365911199</v>
+        <v>0.07508837160801168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03050458278441262</v>
+        <v>0.02785944494296355</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02974712179311296</v>
+        <v>0.03011060541026116</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02609125532808784</v>
+        <v>0.02591091390588562</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05925284149111413</v>
+        <v>0.06115717857881055</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0226823239903791</v>
+        <v>0.02370327110505176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02378936889769478</v>
+        <v>0.02158349413891704</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02161917103440891</v>
+        <v>0.02120142070322185</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.0181179266223667</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.01536106134431453</v>
+        <v>0.01536106134431454</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003125846474059224</v>
+        <v>0.002861359680745924</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003167669239302997</v>
+        <v>0.003156900089041013</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006949328371017598</v>
+        <v>0.00700824934826652</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03752222854895097</v>
+        <v>0.03761330373582306</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01035363468320341</v>
+        <v>0.01054259339641131</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.008657665310171359</v>
+        <v>0.008653688080681081</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02497560775788948</v>
+        <v>0.02464191929115594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001486282957415362</v>
+        <v>0.001503877551137427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.009906632653000737</v>
+        <v>0.009286181349645159</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.009907282320935649</v>
+        <v>0.0101598732878488</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02913900678633034</v>
+        <v>0.02912675453863982</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02295230303254145</v>
+        <v>0.02280608199771003</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03835148945652552</v>
+        <v>0.03654665840610984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02803449161865626</v>
+        <v>0.0261831735297886</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0872687759328436</v>
+        <v>0.08840268874186949</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02504677584277712</v>
+        <v>0.02732677298201597</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04112227034377295</v>
+        <v>0.04097066799247983</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0264731944758549</v>
+        <v>0.02557643808077677</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0534746144552205</v>
+        <v>0.05098547139172569</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01667850524059937</v>
+        <v>0.01907442456814921</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03162265933836384</v>
+        <v>0.03214562418330518</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02234987132395093</v>
+        <v>0.02308887096641327</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.02266482125666737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.007838556424674108</v>
+        <v>0.007838556424674107</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04073836954060478</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02457919782937026</v>
+        <v>0.02447312568082059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004265466529833684</v>
+        <v>0.00427427482069928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009761133356497668</v>
+        <v>0.009516485298033386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002305563420840635</v>
+        <v>0.001891818086718291</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02137815516857583</v>
+        <v>0.02068886727161173</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0111108440503304</v>
+        <v>0.01127311344097017</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01552317339673224</v>
+        <v>0.01510883284570675</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.006148026958331333</v>
+        <v>0.006134846100239387</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0275261304224839</v>
+        <v>0.0289611390179122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01171539435595998</v>
+        <v>0.01050890146787103</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01557994055972318</v>
+        <v>0.01599851340645523</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.005983546126980292</v>
+        <v>0.005808498355250331</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07388151165203857</v>
+        <v>0.0799991762359735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04509371440645311</v>
+        <v>0.03778540575749757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04499506998282846</v>
+        <v>0.04454935804305873</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01968553146037679</v>
+        <v>0.01930768032197476</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0664596676148598</v>
+        <v>0.06684653046395735</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04304036115996201</v>
+        <v>0.04376192688496681</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0563530291836481</v>
+        <v>0.05968380333319768</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02181082778771641</v>
+        <v>0.02182169570096109</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06264459766338509</v>
+        <v>0.06388914146337263</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03559216890350639</v>
+        <v>0.03488226609903609</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0452233202239312</v>
+        <v>0.0446676037741395</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01700047349196883</v>
+        <v>0.01706452697781567</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6443</v>
+        <v>6772</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1914</v>
+        <v>1885</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8480</v>
+        <v>8366</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3063</v>
+        <v>3034</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5978</v>
+        <v>5565</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17922</v>
+        <v>18123</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6782</v>
+        <v>6114</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8048</v>
+        <v>7538</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2734</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21288</v>
+        <v>22217</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10596</v>
+        <v>9795</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8578</v>
+        <v>9098</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9197</v>
+        <v>10533</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22685</v>
+        <v>22731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14895</v>
+        <v>14471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19835</v>
+        <v>19776</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13169</v>
+        <v>14592</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>38508</v>
+        <v>38945</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20372</v>
+        <v>20155</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23687</v>
+        <v>23334</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15767</v>
+        <v>15884</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14899</v>
+        <v>14753</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6607</v>
+        <v>6462</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4081</v>
+        <v>4056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3763</v>
+        <v>4105</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19178</v>
+        <v>19569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5951</v>
+        <v>6051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5957</v>
+        <v>6106</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2821</v>
+        <v>2614</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39130</v>
+        <v>38708</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15689</v>
+        <v>15108</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13118</v>
+        <v>12308</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8176</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34622</v>
+        <v>35386</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22371</v>
+        <v>21075</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15694</v>
+        <v>16333</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20842</v>
+        <v>21115</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42066</v>
+        <v>43469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18928</v>
+        <v>19357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18873</v>
+        <v>20522</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14787</v>
+        <v>14456</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>70409</v>
+        <v>67890</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35061</v>
+        <v>34200</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29854</v>
+        <v>29698</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27082</v>
+        <v>27760</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14607</v>
+        <v>14325</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7193</v>
+        <v>7360</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3047</v>
+        <v>3146</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1590</v>
+        <v>2112</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30025</v>
+        <v>29540</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7603</v>
+        <v>7652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6891</v>
+        <v>7360</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1705</v>
+        <v>2178</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47879</v>
+        <v>48713</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>18378</v>
+        <v>19157</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12852</v>
+        <v>12668</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5276</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35353</v>
+        <v>34936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24607</v>
+        <v>24448</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13751</v>
+        <v>14304</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13501</v>
+        <v>14634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54044</v>
+        <v>55663</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24496</v>
+        <v>23318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22351</v>
+        <v>21511</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10207</v>
+        <v>10301</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81261</v>
+        <v>80641</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40885</v>
+        <v>42807</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30481</v>
+        <v>30760</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18838</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4947</v>
+        <v>5126</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7665</v>
+        <v>7198</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5026</v>
+        <v>5018</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13751</v>
+        <v>12897</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3263</v>
+        <v>3836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6638</v>
+        <v>6393</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4245</v>
+        <v>4223</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21409</v>
+        <v>22354</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14026</v>
+        <v>14337</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13388</v>
+        <v>13914</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6728</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18875</v>
+        <v>18904</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24150</v>
+        <v>24180</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21403</v>
+        <v>20948</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10800</v>
+        <v>10158</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31053</v>
+        <v>30975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16193</v>
+        <v>17584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21800</v>
+        <v>21038</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14438</v>
+        <v>14079</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44876</v>
+        <v>45038</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36089</v>
+        <v>34944</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>35316</v>
+        <v>35660</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20067</v>
+        <v>20091</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8474</v>
+        <v>9086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2049</v>
+        <v>2016</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2091</v>
+        <v>2004</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3461</v>
+        <v>3884</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10965</v>
+        <v>11927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2190</v>
+        <v>2135</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2351</v>
+        <v>2363</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5677</v>
+        <v>5665</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23785</v>
+        <v>23995</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6167</v>
+        <v>6075</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6590</v>
+        <v>6591</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11466</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24603</v>
+        <v>25037</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12581</v>
+        <v>11126</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13111</v>
+        <v>13461</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15505</v>
+        <v>15644</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28419</v>
+        <v>30335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13505</v>
+        <v>12334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14679</v>
+        <v>14858</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15835</v>
+        <v>15725</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46798</v>
+        <v>48302</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19759</v>
+        <v>20648</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23026</v>
+        <v>20891</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26264</v>
+        <v>25757</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>915</v>
+        <v>837</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2825</v>
+        <v>2849</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12868</v>
+        <v>12899</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3900</v>
+        <v>3972</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15872</v>
+        <v>15660</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7044</v>
+        <v>6603</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8350</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8526</v>
+        <v>8522</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7019</v>
+        <v>6974</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12822</v>
+        <v>12219</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11395</v>
+        <v>10643</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29927</v>
+        <v>30316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8842</v>
+        <v>9647</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>15492</v>
+        <v>15435</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11553</v>
+        <v>11161</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>33984</v>
+        <v>32402</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>10988</v>
+        <v>12567</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22486</v>
+        <v>22857</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>18838</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5080</v>
+        <v>5058</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2509</v>
+        <v>2446</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>714</v>
+        <v>586</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7138</v>
+        <v>6908</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4248</v>
+        <v>4311</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6151</v>
+        <v>5987</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2840</v>
+        <v>2834</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14880</v>
+        <v>15656</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>7383</v>
+        <v>6623</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>10177</v>
+        <v>10451</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>4616</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15269</v>
+        <v>16533</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11175</v>
+        <v>9364</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11564</v>
+        <v>11449</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6093</v>
+        <v>5976</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22191</v>
+        <v>22321</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>16457</v>
+        <v>16733</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22329</v>
+        <v>23649</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10076</v>
+        <v>10081</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>33864</v>
+        <v>34537</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>22430</v>
+        <v>21983</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29541</v>
+        <v>29178</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>13115</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
     </row>
     <row r="36">
